--- a/Stress testing result.xlsx
+++ b/Stress testing result.xlsx
@@ -11,11 +11,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Stress Test</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">Server URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="13.0"/>
+        <u/>
+      </rPr>
+      <t>https://random-data-api.com/api/v2/users</t>
+    </r>
+  </si>
+  <si>
     <t>TEST NAME</t>
   </si>
   <si>
@@ -67,14 +85,14 @@
     <t>2.8/sec</t>
   </si>
   <si>
-    <t>Upper bottlenck /Stress test</t>
+    <t>Stress TPS 3.1 with 0.87% error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -88,9 +106,9 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="13.0"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -108,8 +126,13 @@
       <color theme="1"/>
       <name val="Georgia"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +147,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -154,8 +183,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,33 +310,33 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="7" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -310,28 +345,28 @@
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="8" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +615,10 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6">
-      <c r="E6" s="9"/>
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -593,25 +630,25 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +665,7 @@
     </row>
     <row r="9">
       <c r="E9" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="19"/>
@@ -636,7 +673,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
       <c r="K9" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="18"/>
     </row>
@@ -651,7 +688,7 @@
     </row>
     <row r="11">
       <c r="E11" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="22">
@@ -667,12 +704,12 @@
         <v>0.0087</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -686,12 +723,12 @@
         <v>0.006</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -705,12 +742,12 @@
         <v>0.0011</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -724,27 +761,29 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="33.0" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
       <c r="E15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="31" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E3:K5"/>
     <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E15:K15"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E6"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>